--- a/ADaM coding/Specs/ADaM-like Spec.xlsx
+++ b/ADaM coding/Specs/ADaM-like Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alice\Documents\biostatistics\BI\2024\fall semester\ADaM coding\Specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970D5850-E6A2-4E77-8EEA-5661320736F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3914A734-CAF6-45AC-9730-88AB8B0C1E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="200">
   <si>
     <t>ADSL</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Start Date/Time of Medication</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>End Date/Time of Medication</t>
   </si>
   <si>
@@ -288,13 +285,7 @@
     <t>MHSTDTC</t>
   </si>
   <si>
-    <t>MH.MHSTDTC</t>
-  </si>
-  <si>
     <t>MHENDTC</t>
-  </si>
-  <si>
-    <t>MH.MHENDTC</t>
   </si>
   <si>
     <t xml:space="preserve">End Relative to Reference Time Point </t>
@@ -391,12 +382,6 @@
     <t>If start date is completely missing or missing the year then ASTDTF is ’Y’
 Else if start date has month missing then ASTDTF is ’M’
 Else if start date has day missing then ASTDTF is ’D’</t>
-  </si>
-  <si>
-    <t>Change date display format for MH.MHSTDTC</t>
-  </si>
-  <si>
-    <t>if MHENRTPT = 'ONGOING', then '', else different display format for MH.MHENDTC</t>
   </si>
   <si>
     <t>RANDFL</t>
@@ -680,6 +665,26 @@
     <t>VS.VSORRES when VS.VSTEST = ' 
 Weight' and VS.VISIT == 'Visit 0'
 Round value to 1 digits</t>
+  </si>
+  <si>
+    <t>MH.MHSTDTC
+Obtain the date from MH domain without changes</t>
+  </si>
+  <si>
+    <t>if MHENRTPT = 'ONGOING', then '', else different display format for MH.MHENDTC
+If the day is missing then impute adding '-01' to the date,
+otherwise if both the day and the month are missing then impute adding '-01-01' to the date,
+otherwise if the date is missing completely then leave blank</t>
+  </si>
+  <si>
+    <t>Change date display format for MH.MHSTDTC
+If the day is missing then impute adding '-01' to the date,
+otherwise if both the day and the month are missing then impute '-01-01' to the date,
+otherwise if the date is missing completely then leave blank</t>
+  </si>
+  <si>
+    <t>MH.MHENDTC
+Obtain the date from MH domain without changes</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1233,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
@@ -1248,42 +1253,42 @@
         <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>40</v>
@@ -1360,15 +1365,15 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1383,15 +1388,15 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -1406,15 +1411,15 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -1429,15 +1434,15 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -1446,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I6" s="10"/>
     </row>
@@ -1475,17 +1480,17 @@
         <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -1500,17 +1505,17 @@
         <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -1525,17 +1530,17 @@
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I9" s="9"/>
     </row>
@@ -1544,23 +1549,23 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -1572,20 +1577,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -1597,20 +1602,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I12" s="9"/>
     </row>
@@ -1619,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -1642,23 +1647,23 @@
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -1673,15 +1678,15 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I15" s="9"/>
     </row>
@@ -1696,17 +1701,17 @@
         <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -1715,23 +1720,23 @@
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I17" s="9"/>
     </row>
@@ -1740,23 +1745,23 @@
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -1765,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I19" s="9"/>
     </row>
@@ -1788,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I20" s="10"/>
     </row>
@@ -1811,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -1834,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I22" s="10"/>
     </row>
@@ -1857,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -1880,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I24" s="10"/>
     </row>
@@ -1903,23 +1908,23 @@
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I25" s="9"/>
     </row>
@@ -1928,23 +1933,23 @@
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I26" s="9"/>
     </row>
@@ -1959,17 +1964,17 @@
         <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I27" s="9"/>
     </row>
@@ -1978,23 +1983,23 @@
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28" s="9"/>
     </row>
@@ -2003,23 +2008,23 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -2028,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -2057,17 +2062,17 @@
         <v>49</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I31" s="4"/>
     </row>
@@ -2076,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I32" s="4"/>
     </row>
@@ -2105,17 +2110,17 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I33" s="4"/>
     </row>
@@ -2124,21 +2129,21 @@
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I34" s="4"/>
     </row>
@@ -2147,23 +2152,23 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I35" s="4"/>
     </row>
@@ -2178,17 +2183,17 @@
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2206,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="104" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="104" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>40</v>
@@ -2254,7 +2259,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -2268,16 +2273,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -2291,7 +2296,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>53</v>
@@ -2300,7 +2305,7 @@
     </row>
     <row r="4" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>41</v>
@@ -2313,19 +2318,19 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>43</v>
@@ -2341,19 +2346,19 @@
         <v>54</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>55</v>
@@ -2364,47 +2369,47 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -2412,22 +2417,22 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
@@ -2437,22 +2442,22 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -2462,41 +2467,41 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>57</v>
@@ -2512,16 +2517,16 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>63</v>
@@ -2534,44 +2539,44 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -2587,72 +2592,72 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -2662,10 +2667,10 @@
         <v>61</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I18" s="4"/>
     </row>
